--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 44420-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 44420-2022.xlsx", "A 44420-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 44420-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 44420-2022.png", "A 44420-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 44420-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 44420-2022.docx", "A 44420-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 44420-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 44420-2022.docx", "A 44420-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 44420-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 44420-2022.docx", "A 44420-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 44420-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 44420-2022.docx", "A 44420-2022")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,27 +722,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 44418-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 44418-2022.xlsx", "A 44418-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 44418-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 44418-2022.png", "A 44418-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 44418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 44418-2022.docx", "A 44418-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 44418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 44418-2022.docx", "A 44418-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 44418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 44418-2022.docx", "A 44418-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 44418-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 44418-2022.docx", "A 44418-2022")</f>
         <v/>
       </c>
     </row>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -813,27 +813,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 50444-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 50444-2021.xlsx", "A 50444-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 50444-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 50444-2021.png", "A 50444-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 50444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 50444-2021.docx", "A 50444-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 50444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 50444-2021.docx", "A 50444-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 50444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 50444-2021.docx", "A 50444-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 50444-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 50444-2021.docx", "A 50444-2021")</f>
         <v/>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -903,31 +903,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 13867-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 13867-2020.xlsx", "A 13867-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 13867-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 13867-2020.png", "A 13867-2020")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/knärot/A 13867-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/knärot/A 13867-2020.png", "A 13867-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 13867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 13867-2020.docx", "A 13867-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 13867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 13867-2020.docx", "A 13867-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 13867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 13867-2020.docx", "A 13867-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 13867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 13867-2020.docx", "A 13867-2020")</f>
         <v/>
       </c>
     </row>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,27 +1001,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 26963-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 26963-2022.xlsx", "A 26963-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 26963-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 26963-2022.png", "A 26963-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 26963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 26963-2022.docx", "A 26963-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 26963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 26963-2022.docx", "A 26963-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 26963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 26963-2022.docx", "A 26963-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 26963-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 26963-2022.docx", "A 26963-2022")</f>
         <v/>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,31 +1094,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 73023-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 73023-2021.xlsx", "A 73023-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 73023-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 73023-2021.png", "A 73023-2021")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/knärot/A 73023-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/knärot/A 73023-2021.png", "A 73023-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 73023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 73023-2021.docx", "A 73023-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 73023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 73023-2021.docx", "A 73023-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 73023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 73023-2021.docx", "A 73023-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 73023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 73023-2021.docx", "A 73023-2021")</f>
         <v/>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,27 +1186,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 11848-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 11848-2023.xlsx", "A 11848-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 11848-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 11848-2023.png", "A 11848-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 11848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 11848-2023.docx", "A 11848-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 11848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 11848-2023.docx", "A 11848-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 11848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 11848-2023.docx", "A 11848-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 11848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 11848-2023.docx", "A 11848-2023")</f>
         <v/>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,27 +1278,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 31881-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 31881-2020.xlsx", "A 31881-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 31881-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 31881-2020.png", "A 31881-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 31881-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 31881-2020.docx", "A 31881-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 31881-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 31881-2020.docx", "A 31881-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 31881-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 31881-2020.docx", "A 31881-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 31881-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 31881-2020.docx", "A 31881-2020")</f>
         <v/>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,27 +1365,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 68201-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 68201-2021.xlsx", "A 68201-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 68201-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 68201-2021.png", "A 68201-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 68201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 68201-2021.docx", "A 68201-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 68201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 68201-2021.docx", "A 68201-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 68201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 68201-2021.docx", "A 68201-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 68201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 68201-2021.docx", "A 68201-2021")</f>
         <v/>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1457,27 +1457,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 73971-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 73971-2021.xlsx", "A 73971-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 73971-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 73971-2021.png", "A 73971-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 73971-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 73971-2021.docx", "A 73971-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 73971-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 73971-2021.docx", "A 73971-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 73971-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 73971-2021.docx", "A 73971-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 73971-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 73971-2021.docx", "A 73971-2021")</f>
         <v/>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1549,27 +1549,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 61712-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 61712-2022.xlsx", "A 61712-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 61712-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 61712-2022.png", "A 61712-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 61712-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 61712-2022.docx", "A 61712-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 61712-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 61712-2022.docx", "A 61712-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 61712-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 61712-2022.docx", "A 61712-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 61712-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 61712-2022.docx", "A 61712-2022")</f>
         <v/>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,27 +1641,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 28595-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 28595-2023.xlsx", "A 28595-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 28595-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 28595-2023.png", "A 28595-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 28595-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 28595-2023.docx", "A 28595-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 28595-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 28595-2023.docx", "A 28595-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 28595-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 28595-2023.docx", "A 28595-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 28595-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 28595-2023.docx", "A 28595-2023")</f>
         <v/>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,27 +1727,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 66423-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 66423-2019.xlsx", "A 66423-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 66423-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 66423-2019.png", "A 66423-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 66423-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 66423-2019.docx", "A 66423-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 66423-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 66423-2019.docx", "A 66423-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 66423-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 66423-2019.docx", "A 66423-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 66423-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 66423-2019.docx", "A 66423-2019")</f>
         <v/>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,31 +1813,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 14504-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 14504-2020.xlsx", "A 14504-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 14504-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 14504-2020.png", "A 14504-2020")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/knärot/A 14504-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/knärot/A 14504-2020.png", "A 14504-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 14504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 14504-2020.docx", "A 14504-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 14504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 14504-2020.docx", "A 14504-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 14504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 14504-2020.docx", "A 14504-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 14504-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 14504-2020.docx", "A 14504-2020")</f>
         <v/>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1903,27 +1903,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 69475-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 69475-2020.xlsx", "A 69475-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 69475-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 69475-2020.png", "A 69475-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 69475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 69475-2020.docx", "A 69475-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 69475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 69475-2020.docx", "A 69475-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 69475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 69475-2020.docx", "A 69475-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 69475-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 69475-2020.docx", "A 69475-2020")</f>
         <v/>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1989,27 +1989,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 17190-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 17190-2021.xlsx", "A 17190-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 17190-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 17190-2021.png", "A 17190-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 17190-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 17190-2021.docx", "A 17190-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 17190-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 17190-2021.docx", "A 17190-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 17190-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 17190-2021.docx", "A 17190-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 17190-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 17190-2021.docx", "A 17190-2021")</f>
         <v/>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2080,27 +2080,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 47260-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 47260-2022.xlsx", "A 47260-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 47260-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 47260-2022.png", "A 47260-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 47260-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 47260-2022.docx", "A 47260-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 47260-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 47260-2022.docx", "A 47260-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 47260-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 47260-2022.docx", "A 47260-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 47260-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 47260-2022.docx", "A 47260-2022")</f>
         <v/>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2166,27 +2166,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 2817-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 2817-2023.xlsx", "A 2817-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 2817-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 2817-2023.png", "A 2817-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 2817-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 2817-2023.docx", "A 2817-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 2817-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 2817-2023.docx", "A 2817-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 2817-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 2817-2023.docx", "A 2817-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 2817-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 2817-2023.docx", "A 2817-2023")</f>
         <v/>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2256,27 +2256,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 45558-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 45558-2019.xlsx", "A 45558-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 45558-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 45558-2019.png", "A 45558-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 45558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 45558-2019.docx", "A 45558-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 45558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 45558-2019.docx", "A 45558-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 45558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 45558-2019.docx", "A 45558-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 45558-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 45558-2019.docx", "A 45558-2019")</f>
         <v/>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,27 +2341,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 16356-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 16356-2020.xlsx", "A 16356-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 16356-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 16356-2020.png", "A 16356-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 16356-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 16356-2020.docx", "A 16356-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 16356-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 16356-2020.docx", "A 16356-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 16356-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 16356-2020.docx", "A 16356-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 16356-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 16356-2020.docx", "A 16356-2020")</f>
         <v/>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2426,27 +2426,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 31905-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 31905-2020.xlsx", "A 31905-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 31905-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 31905-2020.png", "A 31905-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 31905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 31905-2020.docx", "A 31905-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 31905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 31905-2020.docx", "A 31905-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 31905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 31905-2020.docx", "A 31905-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 31905-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 31905-2020.docx", "A 31905-2020")</f>
         <v/>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2516,27 +2516,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 36956-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 36956-2020.xlsx", "A 36956-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 36956-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 36956-2020.png", "A 36956-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 36956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 36956-2020.docx", "A 36956-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 36956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 36956-2020.docx", "A 36956-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 36956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 36956-2020.docx", "A 36956-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 36956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 36956-2020.docx", "A 36956-2020")</f>
         <v/>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2601,27 +2601,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 51168-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 51168-2020.xlsx", "A 51168-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 51168-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 51168-2020.png", "A 51168-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 51168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 51168-2020.docx", "A 51168-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 51168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 51168-2020.docx", "A 51168-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 51168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 51168-2020.docx", "A 51168-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 51168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 51168-2020.docx", "A 51168-2020")</f>
         <v/>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2686,27 +2686,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 19368-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 19368-2021.xlsx", "A 19368-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 19368-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 19368-2021.png", "A 19368-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 19368-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 19368-2021.docx", "A 19368-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 19368-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 19368-2021.docx", "A 19368-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 19368-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 19368-2021.docx", "A 19368-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 19368-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 19368-2021.docx", "A 19368-2021")</f>
         <v/>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2776,27 +2776,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 25517-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 25517-2021.xlsx", "A 25517-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 25517-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 25517-2021.png", "A 25517-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 25517-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 25517-2021.docx", "A 25517-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 25517-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 25517-2021.docx", "A 25517-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 25517-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 25517-2021.docx", "A 25517-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 25517-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 25517-2021.docx", "A 25517-2021")</f>
         <v/>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2866,27 +2866,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 60797-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 60797-2021.xlsx", "A 60797-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 60797-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 60797-2021.png", "A 60797-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 60797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 60797-2021.docx", "A 60797-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 60797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 60797-2021.docx", "A 60797-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 60797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 60797-2021.docx", "A 60797-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 60797-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 60797-2021.docx", "A 60797-2021")</f>
         <v/>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,27 +2956,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 67917-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 67917-2021.xlsx", "A 67917-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 67917-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 67917-2021.png", "A 67917-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 67917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 67917-2021.docx", "A 67917-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 67917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 67917-2021.docx", "A 67917-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 67917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 67917-2021.docx", "A 67917-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 67917-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 67917-2021.docx", "A 67917-2021")</f>
         <v/>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3046,27 +3046,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 67902-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 67902-2021.xlsx", "A 67902-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 67902-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 67902-2021.png", "A 67902-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 67902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 67902-2021.docx", "A 67902-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 67902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 67902-2021.docx", "A 67902-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 67902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 67902-2021.docx", "A 67902-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 67902-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 67902-2021.docx", "A 67902-2021")</f>
         <v/>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3131,27 +3131,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 71289-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 71289-2021.xlsx", "A 71289-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 71289-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 71289-2021.png", "A 71289-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 71289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 71289-2021.docx", "A 71289-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 71289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 71289-2021.docx", "A 71289-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 71289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 71289-2021.docx", "A 71289-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 71289-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 71289-2021.docx", "A 71289-2021")</f>
         <v/>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3216,27 +3216,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 24589-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 24589-2022.xlsx", "A 24589-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 24589-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 24589-2022.png", "A 24589-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 24589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 24589-2022.docx", "A 24589-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 24589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 24589-2022.docx", "A 24589-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 24589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 24589-2022.docx", "A 24589-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 24589-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 24589-2022.docx", "A 24589-2022")</f>
         <v/>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3306,27 +3306,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 44649-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 44649-2022.xlsx", "A 44649-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 44649-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 44649-2022.png", "A 44649-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 44649-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 44649-2022.docx", "A 44649-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 44649-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 44649-2022.docx", "A 44649-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 44649-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 44649-2022.docx", "A 44649-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 44649-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 44649-2022.docx", "A 44649-2022")</f>
         <v/>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3391,27 +3391,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 48598-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 48598-2022.xlsx", "A 48598-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 48598-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 48598-2022.png", "A 48598-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 48598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 48598-2022.docx", "A 48598-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 48598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 48598-2022.docx", "A 48598-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 48598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 48598-2022.docx", "A 48598-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 48598-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 48598-2022.docx", "A 48598-2022")</f>
         <v/>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3481,27 +3481,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 49052-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 49052-2022.xlsx", "A 49052-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 49052-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 49052-2022.png", "A 49052-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 49052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 49052-2022.docx", "A 49052-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 49052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 49052-2022.docx", "A 49052-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 49052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 49052-2022.docx", "A 49052-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 49052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 49052-2022.docx", "A 49052-2022")</f>
         <v/>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,27 +3571,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 61713-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 61713-2022.xlsx", "A 61713-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 61713-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 61713-2022.png", "A 61713-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 61713-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 61713-2022.docx", "A 61713-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 61713-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 61713-2022.docx", "A 61713-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 61713-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 61713-2022.docx", "A 61713-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 61713-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 61713-2022.docx", "A 61713-2022")</f>
         <v/>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3656,27 +3656,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 19375-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/artfynd/A 19375-2023.xlsx", "A 19375-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 19375-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/kartor/A 19375-2023.png", "A 19375-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 19375-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomål/A 19375-2023.docx", "A 19375-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 19375-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/klagomålsmail/A 19375-2023.docx", "A 19375-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 19375-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsyn/A 19375-2023.docx", "A 19375-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 19375-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_PITEA/tillsynsmail/A 19375-2023.docx", "A 19375-2023")</f>
         <v/>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43332</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43336</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43341</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43383</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43398</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43402</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43404</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43406</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43418</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43427</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43436</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43451</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43486</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43489</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43509</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43510</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43523</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>43532</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43554</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43557</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43567</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43570</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>43605</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43608</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43614</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>43616</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>43633</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>43640</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43647</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43652</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43677</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>43678</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43682</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>43691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43696</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43697</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43706</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43707</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>43711</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43713</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43718</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43720</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>43732</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43752</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43755</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>43760</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43762</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>43768</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>43770</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>43775</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43777</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43780</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43782</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43789</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43801</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43807</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43817</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43822</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>43846</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>43852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>43853</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>43854</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>43859</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>43860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>43868</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>43874</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>43878</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>43880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>43889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43896</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>43907</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>43913</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43914</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>43927</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>43950</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43958</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43962</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>43970</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43976</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>43987</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43997</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43999</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>44007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44011</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44012</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44020</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44026</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>44035</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>44067</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44068</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44069</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44070</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44075</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44078</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44087</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44099</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44123</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44127</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44155</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44162</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44166</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44172</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44180</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44186</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44209</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>44211</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44215</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44221</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44237</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44238</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44256</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44257</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44258</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44281</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44285</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>44292</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>44309</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44320</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44321</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44326</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44339</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44344</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44354</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44355</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44357</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>44361</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44362</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44368</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44370</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44375</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44376</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44378</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44383</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>44386</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>44421</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44428</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44432</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44433</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44438</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44439</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44440</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44441</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44446</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>44447</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44453</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44454</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44463</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44468</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44480</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>44487</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44489</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44496</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44497</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44498</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44499</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44516</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44522</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44523</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44525</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44529</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44530</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44531</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44536</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44538</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44539</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44543</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44547</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44550</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44571</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44582</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44588</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44589</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44592</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44599</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>44608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>44615</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44616</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44617</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44622</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>44623</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44643</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44656</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44658</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>44685</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>44687</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44708</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>44747</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44756</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44761</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44781</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44783</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44785</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44792</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44795</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44803</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44811</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>44813</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44817</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44818</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>44819</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>44820</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44823</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44824</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44827</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44832</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44838</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44841</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44862</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44867</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44879</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44890</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44904</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44909</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44910</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44911</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44917</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44941</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44942</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44953</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44971</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44984</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44985</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44991</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45015</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45021</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45028</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45029</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45035</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45043</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45048</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45054</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45055</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45056</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45068</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45072</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45076</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45077</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45079</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45085</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45086</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32962,7 +32962,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33019,7 +33019,7 @@
         <v>45090</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45091</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33190,7 +33190,7 @@
         <v>45093</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45096</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45098</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45100</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45107</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45119</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45139</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45140</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45145</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45162</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45188</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43325</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43336</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43341</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43355</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43376</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43383</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43391</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43392</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43398</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43402</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43416</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43418</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43419</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43436</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43472</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43490</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43493</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43516</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43521</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43523</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43542</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43544</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43554</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43557</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>43567</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>43584</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43614</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43633</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43640</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43652</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43677</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43682</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43691</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43707</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43711</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43718</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43720</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43721</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43732</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43752</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43755</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43762</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43768</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43775</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>43777</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>43780</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>43789</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>43801</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>43802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>43807</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>43809</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>43817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43822</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43833</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>43854</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43859</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>43860</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>43868</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>43874</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43878</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43880</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43907</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>43914</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>43927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43929</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43931</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>43950</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>43957</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43958</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43959</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>43962</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43971</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43979</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43994</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43999</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>44000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>44006</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44007</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44011</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44012</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44026</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44035</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44070</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44075</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44078</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44083</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44087</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44088</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44092</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44103</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44106</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44123</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44127</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44139</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44141</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44155</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44172</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44180</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44186</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44215</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44221</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44237</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44256</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44257</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44258</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44285</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44292</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44309</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44320</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44321</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44326</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44339</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44342</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>44344</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44354</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44355</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44357</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44361</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44362</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44368</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44370</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44375</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44376</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44383</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44386</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44421</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44428</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44432</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44433</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44438</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44439</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44440</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44441</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44446</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44447</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44454</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44463</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44468</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44480</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44487</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44489</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44498</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44499</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44502</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44516</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44522</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44523</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44525</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44530</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44531</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44536</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44538</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44539</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44543</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44547</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44550</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44571</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44582</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44588</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44589</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44599</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44608</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44615</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44616</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>44617</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44622</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44623</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44643</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>44656</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>44658</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>44683</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44685</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44687</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44708</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44727</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44747</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44761</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44777</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>44781</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44783</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44784</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44785</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44792</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44795</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44803</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44811</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44813</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44816</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44817</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44818</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44819</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44820</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44823</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44824</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44827</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>44832</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44838</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44840</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44841</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>44848</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44862</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44867</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44879</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44883</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44888</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44890</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44904</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44909</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44910</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44911</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44917</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44941</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>44942</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>44953</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44966</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44971</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44984</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44985</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44991</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45028</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45029</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45035</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45043</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32053,7 +32053,7 @@
         <v>45048</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>45055</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32281,7 +32281,7 @@
         <v>45056</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45072</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32524,7 +32524,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         <v>45076</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         <v>45077</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>45079</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32819,7 +32819,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45085</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>45086</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33166,7 +33166,7 @@
         <v>45090</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>45091</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45098</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45100</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>45103</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>45104</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45106</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45110</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>45119</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>45141</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>45148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45167</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45187</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45187</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45187</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45188</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44526</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45103</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>43802</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>43902</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>44298</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44944</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>43908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44014</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44053</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44309</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44538</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44727</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44859</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44860</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44917</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45049</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>45188</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43325</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43336</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43339</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43341</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43355</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43376</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43376</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43383</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43391</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43391</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43392</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43398</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43402</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43404</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43406</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43416</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43418</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43419</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43436</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43438</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43451</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43472</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43490</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43493</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43516</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43521</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43523</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43523</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43532</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43542</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43544</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>43554</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>43556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>43557</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43557</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43564</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>43567</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43570</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>43584</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>43608</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43614</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>43633</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>43633</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>43640</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>43640</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>43647</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43650</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>43652</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43677</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43678</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43682</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43691</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>43691</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43696</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>43697</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>43706</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>43707</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43711</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43713</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>43718</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>43718</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>43720</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>43721</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43732</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>43741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43752</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43755</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>43755</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>43760</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>43762</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>43768</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>43770</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>43775</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43775</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>43777</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>43780</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>43780</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>43782</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>43789</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>43798</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>43801</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>43802</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>43802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>43807</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>43809</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>43817</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>43817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43822</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43822</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43833</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43853</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>43854</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>43859</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43859</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>43860</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>43868</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>43868</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>43874</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43878</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43880</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43880</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>43907</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>43913</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>43914</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>43927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>43929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>43929</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>43931</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>43950</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>43957</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43958</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43958</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43959</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43962</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>43962</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>43970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43971</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43976</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43979</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43987</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43994</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43997</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43999</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>44000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>44006</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>44006</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44007</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44007</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44011</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44012</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44020</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44026</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44035</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>44067</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44068</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44070</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44075</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44078</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44083</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44087</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44088</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44088</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>44092</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44092</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44103</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44106</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>44123</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44127</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>44139</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44141</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44155</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44172</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44180</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44186</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44209</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44211</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44215</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44221</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44237</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44256</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44257</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44258</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>44285</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44292</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44309</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44320</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44321</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44321</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44326</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44339</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>44339</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44342</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>44344</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44354</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44355</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44357</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44361</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44361</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44362</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44368</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44368</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         <v>44370</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44370</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44375</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44376</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44383</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44383</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44386</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44421</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44428</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44432</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44432</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44433</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44433</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44438</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44439</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44440</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44440</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>44441</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44446</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44447</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44453</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>44454</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>44454</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44463</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44468</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44480</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44487</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44489</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>44496</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>44497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>44498</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>44499</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>44502</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>44516</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44522</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>44522</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44523</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44525</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44530</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44531</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44536</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44538</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44539</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44543</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44547</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44550</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44571</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44582</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44588</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44589</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44599</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44608</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44615</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44616</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>44617</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>44622</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44623</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44643</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>44656</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>44658</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>44683</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44685</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44687</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>44708</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>44727</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44747</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>44761</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44777</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>44781</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44783</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>44784</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44785</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44792</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>44795</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>44803</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>44811</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44813</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44816</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44817</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>44818</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44819</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44820</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44823</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44824</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44827</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>44832</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44838</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44840</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44841</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>44848</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44862</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44867</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44879</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44883</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>44888</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44890</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>44904</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>44909</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44910</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44911</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44917</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44941</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>44942</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>44953</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>44966</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>44971</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>44984</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>44985</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>44991</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45028</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45029</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45035</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45043</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32053,7 +32053,7 @@
         <v>45048</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32167,7 +32167,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32224,7 +32224,7 @@
         <v>45055</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32281,7 +32281,7 @@
         <v>45056</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45072</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32524,7 +32524,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         <v>45076</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         <v>45077</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>45079</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32819,7 +32819,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45085</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>45086</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33166,7 +33166,7 @@
         <v>45090</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>45091</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33466,7 +33466,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45098</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45100</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33932,7 +33932,7 @@
         <v>45103</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>45104</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45106</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45110</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>45119</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>45141</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>45148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45167</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45187</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45187</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45187</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45188</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44550</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>44995</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44522</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>44526</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>44553</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44917</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45103</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43802</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43902</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>44193</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44298</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44944</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43908</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44014</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44053</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>44106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>44309</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>44495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>44538</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44727</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44840</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44859</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44860</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>44917</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45049</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45188</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43325</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43332</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43336</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43339</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43341</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43355</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43375</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43376</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43376</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43383</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43391</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43391</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43392</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43392</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43398</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43402</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43404</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43406</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43418</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43418</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43424</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43427</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43436</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>43438</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>43451</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43472</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43489</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43489</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43490</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>43493</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43509</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>43521</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43521</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43522</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>43523</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43523</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43523</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43532</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43532</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43542</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43544</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43554</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43557</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43557</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43557</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43567</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43570</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43584</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43614</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43616</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43633</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43640</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43647</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43650</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43652</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43677</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>43682</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43691</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43691</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43696</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43697</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43706</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>43711</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43713</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43718</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43718</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43718</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43720</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43721</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43732</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43752</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43755</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43755</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43760</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>43762</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>43766</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>43768</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43770</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43775</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>43777</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43780</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>43780</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>43780</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>43782</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43789</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43801</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>43802</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43807</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>43809</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>43817</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>43817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43822</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43822</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43833</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>43846</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>43852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>43853</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>43854</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>43859</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>43859</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43859</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43860</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43868</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43868</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43874</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>43878</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>43880</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>43880</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>43889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43895</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43896</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43913</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43914</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43927</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>43929</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>43929</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>43931</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>43950</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>43957</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>43958</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>43958</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>43959</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43962</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>43962</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>43962</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>43970</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>43971</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>43976</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>43979</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>43979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>43984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>43984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>43987</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>43994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>43997</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>43999</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>44000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44006</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44006</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44007</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44007</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44011</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>44020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>44026</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44035</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>44049</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>44068</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44070</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44075</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44078</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44083</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44087</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44088</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44088</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44088</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44092</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44092</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44092</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44095</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44099</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44103</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44106</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44123</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44127</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44132</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44139</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44141</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44141</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44155</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44172</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>44180</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>44186</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44209</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>44211</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>44215</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44221</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44237</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44256</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44257</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44258</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44281</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44285</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>44292</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44309</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44320</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44321</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44321</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44326</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>44339</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>44339</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44342</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44344</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44354</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44355</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44357</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44361</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44361</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>44361</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>44362</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44368</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44368</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44368</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44370</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44370</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44375</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44376</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>44383</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44383</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44383</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44386</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44421</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>44428</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>44432</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>44432</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>44433</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44433</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44438</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44439</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>44439</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44440</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44440</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>44441</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44446</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44447</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44453</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>44454</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44454</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44459</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44463</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44463</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44468</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44476</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44480</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44487</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44489</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>44496</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44497</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44498</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>44499</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>44502</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>44516</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44522</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44523</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44525</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44525</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44530</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44530</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44531</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44536</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44536</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44538</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44538</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44539</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44539</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44543</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>44543</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>44547</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44550</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44550</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44571</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44582</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44582</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44588</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>44589</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44599</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44608</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44615</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44616</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>44617</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44622</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>44623</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44643</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44643</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>44656</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>44658</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>44683</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>44685</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>44685</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44687</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44708</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>44727</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44747</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44756</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44761</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44777</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44781</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44783</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44784</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44785</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44792</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44795</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44795</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44803</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44811</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44813</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44813</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>44816</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44816</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>44817</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>44818</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44818</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44819</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44820</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44823</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>44824</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>44827</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44832</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44838</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44840</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44841</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>44848</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44848</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44862</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>44867</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44867</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44874</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>44879</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>44879</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>44883</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>44888</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30157,7 +30157,7 @@
         <v>44888</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>44890</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44890</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44904</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>44909</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>44910</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44911</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>44911</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>44917</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>44941</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>44942</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31042,7 +31042,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>44942</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>44953</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>44966</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>44971</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>44971</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>44984</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44985</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44991</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44991</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>45015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45021</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45028</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>45029</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45035</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>45035</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>45043</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32083,7 +32083,7 @@
         <v>45048</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32140,7 +32140,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>45055</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45056</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>45072</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45076</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45076</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45077</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45079</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32787,7 +32787,7 @@
         <v>45079</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45085</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>45085</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45086</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>45086</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>45090</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>45090</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>45091</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45098</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33610,7 +33610,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>45098</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45100</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45103</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34024,7 +34024,7 @@
         <v>45104</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34081,7 +34081,7 @@
         <v>45104</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34138,7 +34138,7 @@
         <v>45106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34195,7 +34195,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34252,7 +34252,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         <v>45106</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34366,7 +34366,7 @@
         <v>45107</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34423,7 +34423,7 @@
         <v>45110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45110</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34594,7 +34594,7 @@
         <v>45119</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         <v>45139</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>45141</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>45145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35003,7 +35003,7 @@
         <v>45148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35060,7 +35060,7 @@
         <v>45162</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35117,7 +35117,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35174,7 +35174,7 @@
         <v>45167</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45187</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>45187</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45187</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>45188</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35464,7 +35464,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35526,7 +35526,7 @@
         <v>45198</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45203</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44550</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44995</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44014</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44522</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44553</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44917</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45103</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43902</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44193</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44298</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44944</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43714</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43908</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44014</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44053</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>44106</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44309</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>44538</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44727</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44840</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44860</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45049</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45188</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43325</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43332</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43336</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43339</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43339</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43341</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43355</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43375</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43376</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43383</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43391</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43391</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43392</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43392</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>43402</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43404</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43406</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43418</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43418</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43420</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43424</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43451</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43472</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43489</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43490</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43509</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43510</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43516</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43521</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43521</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43521</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43522</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43523</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43523</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>43523</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>43532</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>43532</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43542</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43554</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43557</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>43557</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43564</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43567</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43608</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43614</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>43616</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43616</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43640</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43650</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43652</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43677</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43678</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43682</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43691</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43691</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43696</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43697</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43711</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43713</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43718</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43718</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43718</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>43720</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43721</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43732</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>43741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>43752</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43755</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43755</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43755</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43762</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43766</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43766</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43768</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43770</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43780</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43780</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43780</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43782</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>43789</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43798</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43801</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43807</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43809</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>43822</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>43822</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>43833</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43853</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43854</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43859</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43859</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43859</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>43868</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>43868</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43874</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43878</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>43880</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43880</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>43889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>43895</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43896</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>43913</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>43914</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43929</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43929</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43931</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43958</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43958</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43962</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43962</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43962</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43971</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>43976</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>43979</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>43984</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43987</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43997</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44006</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44006</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44007</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44007</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44011</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44012</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44026</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44067</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44068</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44070</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44075</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44087</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44088</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44088</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44088</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44092</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44092</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44092</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44095</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44099</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44103</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44123</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44127</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44132</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>44139</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44141</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44141</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44155</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44162</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44180</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44186</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44209</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>44215</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44221</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44237</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44256</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44257</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44258</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44281</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44281</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44285</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44309</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44320</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44321</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44321</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44326</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44339</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44339</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44342</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44344</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>44354</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44355</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44357</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44361</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44361</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44361</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44362</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44368</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>44368</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44368</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44370</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44370</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44375</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>44376</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>44378</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>44383</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44383</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>44383</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>44386</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44421</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44428</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44432</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44432</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44433</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44433</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44438</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44439</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44439</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44440</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44440</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44441</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44446</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44447</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44453</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44454</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44454</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44459</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44463</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44463</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44463</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44468</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44480</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44487</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44489</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44496</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>44497</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>44497</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>44498</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>44499</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>44502</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44516</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>44525</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>44525</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44529</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44530</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44530</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44531</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44536</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44536</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44538</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44538</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44539</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44539</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44543</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>44543</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44547</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44550</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44550</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44582</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44582</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44588</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44589</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44592</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44599</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44608</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44615</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44616</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44617</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44622</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44623</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44643</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44643</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         <v>44656</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>44658</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>44683</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>44683</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44685</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44685</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44687</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44708</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44708</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44727</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44729</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>44741</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>44747</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>44761</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>44777</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>44781</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>44783</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>44784</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>44785</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>44792</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>44795</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44795</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>44811</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28487,7 +28487,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>44813</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>44813</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44816</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>44816</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44817</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44818</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44818</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44819</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44820</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44823</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44824</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44827</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44832</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>44838</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>44840</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         <v>44841</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44848</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>44848</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44855</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44862</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         <v>44867</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>44867</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29900,7 +29900,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44879</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44879</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44883</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44888</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44888</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44890</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44890</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44904</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44909</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44910</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44911</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44911</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44917</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44941</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44942</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44942</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44953</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44966</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44971</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44971</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44984</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44985</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44991</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44991</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>45015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>45028</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>45035</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>45035</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>45043</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>45048</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>45050</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>45054</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>45055</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>45056</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32463,7 +32463,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>45072</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>45072</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45076</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45076</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45077</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45079</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>45079</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>45085</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>45085</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>45086</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45086</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45090</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45091</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45093</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33824,7 +33824,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33881,7 +33881,7 @@
         <v>45098</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45098</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>45100</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45103</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45104</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45106</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45106</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45107</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45110</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45110</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45119</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45139</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34922,7 +34922,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>45141</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>45167</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45187</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>45187</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45187</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>45188</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45198</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>44839</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44839</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>45203</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44550</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44995</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44014</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44522</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44553</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44917</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45103</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>43902</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>44193</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44298</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44944</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43714</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43908</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44014</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>44053</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>44106</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>44309</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>44538</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44727</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44840</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>44860</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44917</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45049</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45188</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>43325</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>43332</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>43336</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>43339</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>43339</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43341</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43355</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43375</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43376</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43376</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43383</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43391</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43391</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43392</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>43392</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>43402</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43404</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43406</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43406</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43416</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43418</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43418</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>43419</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>43420</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>43424</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>43427</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43427</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43438</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43451</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43472</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43489</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43489</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43490</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>43493</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43509</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43510</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43514</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43514</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43514</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43516</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43521</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43521</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43521</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>43521</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>43521</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43522</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43523</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43523</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>43523</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>43532</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>43532</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43542</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>43544</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>43544</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43554</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43557</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>43557</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43557</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>43557</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>43557</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43564</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43564</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43567</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43570</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>43570</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>43570</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>43584</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>43608</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>43614</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>43616</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43616</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43640</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43640</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43647</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43650</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43652</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43677</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43678</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43682</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43691</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43691</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43696</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43697</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43698</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>43698</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43706</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>43711</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43713</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>43718</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>43718</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>43718</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>43720</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>43721</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>43732</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>43741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>43741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>43752</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43755</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43755</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43755</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43760</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43762</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43766</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43766</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43768</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43770</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43780</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>43780</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>43780</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43782</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>43789</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43798</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43801</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43802</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43802</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43807</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43809</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>43822</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>43822</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>43833</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>43846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43853</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43854</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43859</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43859</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43859</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43859</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>43860</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>43868</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>43868</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43874</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43878</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>43880</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43880</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>43889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>43895</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>43896</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>43913</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>43914</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43927</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43929</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43929</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43931</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43958</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43958</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43962</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43962</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43962</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43962</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43970</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43971</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>43976</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>43979</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>43984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>43984</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>43987</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>43994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43997</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43999</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44006</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44006</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44007</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44007</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44011</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44012</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44026</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44049</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44067</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44068</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44070</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44075</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44087</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44088</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44088</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44088</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44092</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44092</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44092</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44095</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44099</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44099</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44103</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44106</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>44123</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44127</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44132</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>44139</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44141</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44141</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44155</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44162</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>44180</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44186</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>44209</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44211</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44211</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44211</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>44215</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44221</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44237</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44256</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>44257</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44258</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44281</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44281</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44285</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44309</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44320</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44321</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44321</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44326</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44339</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44339</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44342</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44344</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>44354</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44355</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44357</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44361</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44361</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44361</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44361</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44362</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44368</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>44368</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44368</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44370</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44370</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44375</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>44376</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>44378</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>44383</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>44383</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>44383</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44383</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>44383</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>44386</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44421</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44428</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44432</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44432</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>44433</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44433</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44438</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44439</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44439</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44440</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44440</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44441</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44446</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44447</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44453</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44454</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44454</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44459</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44463</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44463</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44463</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44468</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>44476</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44480</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>44487</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44489</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44496</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>44497</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>44497</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>44498</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>44499</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>44502</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>44516</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44522</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44523</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>44525</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>44525</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44529</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44530</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44530</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44531</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44536</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44536</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44538</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24816,7 +24816,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44538</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44538</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44538</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44538</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44539</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44539</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44543</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44543</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>44543</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44547</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44550</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44550</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44571</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44582</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44582</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44582</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44582</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44588</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44589</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44592</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44599</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44608</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44615</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44616</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44617</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44622</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44623</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44643</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44643</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         <v>44656</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>44658</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>44683</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>44683</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>44685</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44685</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44685</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44687</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44708</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44708</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44708</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44727</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44729</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44741</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>44741</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>44747</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>44756</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>44761</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>44777</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>44781</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>44783</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>44784</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>44785</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>44792</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>44795</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44795</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>44811</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44813</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>44813</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28487,7 +28487,7 @@
         <v>44813</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>44813</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>44813</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44816</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>44816</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44817</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44818</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44818</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>44819</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>44820</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>44823</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44824</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44827</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44832</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>44838</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>44840</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         <v>44841</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44848</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44848</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>44848</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>44855</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44862</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         <v>44867</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>44867</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29900,7 +29900,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44879</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44879</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44883</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44888</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44888</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>44890</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>44890</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44890</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44890</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44904</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44909</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44910</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44911</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44911</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>44917</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>44941</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44942</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44942</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44942</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44953</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44966</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44971</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>44971</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44984</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44985</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44991</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44991</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>45015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31774,7 +31774,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31831,7 +31831,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>45028</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31945,7 +31945,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>45035</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>45035</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>45043</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>45048</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>45050</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>45054</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>45055</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>45056</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32463,7 +32463,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>45072</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32587,7 +32587,7 @@
         <v>45072</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45076</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45076</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45077</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45079</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>45079</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32944,7 +32944,7 @@
         <v>45085</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>45085</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>45086</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>45086</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45086</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45090</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45091</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45093</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33529,7 +33529,7 @@
         <v>45098</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45098</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45098</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45098</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33824,7 +33824,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33881,7 +33881,7 @@
         <v>45098</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45098</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>45100</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45103</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45104</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45104</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45106</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45106</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45106</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45106</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45107</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34575,7 +34575,7 @@
         <v>45110</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34632,7 +34632,7 @@
         <v>45110</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34689,7 +34689,7 @@
         <v>45119</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45139</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34922,7 +34922,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>45141</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         <v>45162</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>45162</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>45167</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45187</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>45187</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45187</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35497,7 +35497,7 @@
         <v>45188</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>45188</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45198</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
